--- a/500all/speech_level/speeches_CHRG-114hhrg97311.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97311.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="312">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412275</t>
   </si>
   <si>
-    <t>John Fleming</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Fleming. The Subcommittee on Water, Power and Oceans will come to order.    The subcommittee meets today to hear testimony on H.R. 3094. Opening statements at today's hearing are limited to the Chairman, the Ranking Minority Member, the Vice Chair, and a designee of the Ranking Member. The bill's sponsor will also have an opportunity to provide an opening statement on his bill. This will allow us to hear from our witnesses sooner.    Parenthetically, we expect votes in about an hour, so we will probably have to recess for one vote series, and then we will continue the hearing.    At this time, I yield myself some time for an opening statement.</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>412511</t>
   </si>
   <si>
-    <t>Jared Huffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Huffman. Thank you and good afternoon, Mr. Chairman.    In terms of complexity, divisiveness, and potentially contentiousness, the issue of managing Gulf of Mexico red snapper must be second only to California water in terms of tough issues that come before this committee. So I understand what Congressman Graves is up against, and I applaud him for taking on such a politically challenging problem.    I also appreciate his willingness to come to me before the hearing to discuss his legislation and offer to work across the aisle to address concerns that I and many other Democrats on our staff have about this bill.    Based on some of the provisions in the bill, and also a very strong opposition that the recreational charter captains, commercial fishermen, seafood processors, and restaurant industry have voiced about H.R. 3094, it is clear to me this bill, in its current form, is not ready to proceed.    However, I do think an honest and open dialog makes it more likely that we could reach a bill that could be broadly supported down the road. I intend to work with Mr. Graves, if he is up for that, to see if a more careful, consensus-based approach could achieve the Magnuson Act's goal of fully rebuilding these stocks and preventing overfishing, while also addressing Mr. Graves' concern about providing more flexibility and management authority to the Gulf states.    This may seem like a hyper-regional issue. But, in fact, the red snapper debate has implications that reach far beyond the Gulf of Mexico to consumers all over the United States: anyone who enjoys wild, sustainable Gulf seafood.    Just as importantly, it raises questions about whether we should throw back the effective, scientifically sound, and regionally-based system of fisheries management established under the Magnuson Act, or keep it, and allow it to continue rebuilding fisheries like the red snapper, which have been decimated by overfishing in the past.    Some have argued that, since we recently passed legislation to permanently remove the West Coast Dungeness crab fishery from Federal management, that it is only fair to do the same for red snapper. I just want to speak directly to that, because the truth is red snapper and Dungeness crab are really apples and oranges when we talk about these management choices.    Even when you put aside the significant disparities in the stock health between these two species, fishing pressure, user conflict, the history of management, it is impossible to ignore the fact that the Tri-State Dungeness Crab Management Agreement is the result of years of negotiation that took place with all fishery stakeholders at the table.    Further, in the case of Dungeness crab, the Pacific Fishery Management Council can still step in at any point and establish a fishery management plan that would supersede the plan put forward by the states, if it elected to do so. So, there are very important distinctions between these two species and the management choices we face, and also between what has been proposed with the Tri-State Commission on Dungeness Crab and what is being proposed in the current draft of H.R. 3094.    This is a bill that was not developed with input from all fishing sectors that have an interest in red snapper. It is not supported by commercial and charter fleets, that account for more than two-thirds of red snapper harvests. These fleets, and the other tourism and seafood industry businesses that they support, depend on healthy stocks and stable, predictable management. Right now, they have both; but it is difficult to see how they would have either under a state plan that lacks safeguards to prevent overfishing, and could allow massive resource reallocation.    I believe there is a path that would lead to increased state autonomy in managing the recreational side of the red snapper fishery. I think that is possible. But the path should not be one that picks winners and losers, and stacks the deck against people who make their living on the water and who have taken significant steps toward making their fishing operations sustainable and accountable.    Instead, it ought to incorporate the views of private boat anglers, charter boat captains, commercial fishermen, seafood processors, the restaurant and tourism industries, and the conservation community. I look forward to hearing from some of those voices today; and I view this hearing as the beginning, hopefully, of a discussion on how we allow greater access to the red snapper fishery, while ensuring that this important, and still overfished, stock continues to rebuild.    I am also aware that the Gulf Council is beginning similar discussions, and is considering using its authority under the Magnuson Act to develop a regional management plan for red snapper. I hope that Mr. Risenhoover can give us an update on the status of that process, as well as other Council actions that address this issue. I thank you for the time, and yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>412397</t>
   </si>
   <si>
-    <t>Paul A. Gosar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Gosar. Thank you, Mr. Chairman; and thank you for holding today's hearing.    Although Arizona is not known as being the fishing capital of the world----    [Laughter.]</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
     <t>412631</t>
   </si>
   <si>
-    <t>Garret Graves</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Graves. Thank you, Mr. Chairman. I really want to get into the hearing, but will just briefly say that when I was growing up, access to the red snapper fishery was significantly different than it is today. I think both of you indicated in your opening statements that you recognize that there are problems with the current management regime.    Again, growing up, you virtually had access, from a recreational perspective, to the red snapper fishery year-round; whereas, as I think most of you know, last year it was relegated to 9 days; this year, relegated to 10 days of access.    There are fundamental problems with the current management regime, access, and the prevention of folks to access the fishery, but, importantly, to ensure that the access on both the commercial and also on the charter side is based upon proper management.    Louisiana is known as a sportsman's paradise. There is no one here who, I think, has a desire to have the Gulf of Mexico red snapper, or anything else, be overfished. There have been suggestions that the bill is designed to work in the favor of the recreational industry to the detriment of the commercial side, or charter, or otherwise. It is simply not true.    As a matter of fact, Mr. Huffman--and I want to thank you for your opening comments--I want it to be known that I repeatedly reached out to folks on the other side of this and asked for their input in the bill, as we were drafting it, and received nothing.    I also think it is important to make note, and want to be fair, that Stan Harris of the Louisiana Restaurant Association has been in touch with me, as well as some folks in the recreational industry, within the last few months. There have been, from what I appreciate, to be some constructive dialog; but I think it is important to note that we did reach out and tried to find some type of middle ground.    There have been suggestions, again, that the bill is going to work to the detriment of the commercial side. I am not sure where that is coming from. As a matter of fact, there were safeguards only put in on the commercial side. If they are not the right safeguards, then perhaps the industry engaging could have provided us and informed us of some ideas that would have been more helpful, as opposed to me sitting in a vacuum, trying to come up with good ideas, trying to protect the industry.    There have been suggestions that the management regime contemplated in the bill would only work to reduce the commercial side. I also want to be clear there. There is absolutely nothing in the bill that suggests that. Just as the access for any side could potentially be managed down, based upon the informational science, it could also go up.    The problem that we see right now is that the science is far less than accurate. As the Chairman noted, the LA Creel study that Secretary Barham and his folks have been working on, has much better science, as was acknowledged in previous hearings in this committee, than any other science that the Feds are putting together.    There was a study that was recently released that indicated that 82 percent of private boat owners in the Gulf of Mexico support the idea of state-based management, and 72 percent of the federally-licensed charter boat captains also support that. I want to be clear on that, because there has been a lot of distorted information which I cannot wait to set the record straight here today. Seventy-two percent of the federally-licensed charter boat captains, according to this survey, also support state-based management.    Last, I will say this. The five Gulf of Mexico states agree upon very little. We could not even sit Secretary Wiley and Secretary Barham next to each other.    [Laughter.]</t>
   </si>
   <si>
@@ -127,9 +115,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Barham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barham. Yes.</t>
   </si>
   <si>
@@ -151,9 +136,6 @@
     <t xml:space="preserve">    Dr. Fleming. Thank you, Mr. Barham.    The Chair now recognizes Mr. Alan Risenhoover, Director of the Office of Sustainable Fisheries at NOAA, to testify. You have 5 minutes, sir.</t>
   </si>
   <si>
-    <t>Risenhoover</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Risenhoover. Good afternoon, Chairman Fleming, Ranking Member Huffman, and members of the subcommittee.</t>
   </si>
   <si>
@@ -166,9 +148,6 @@
     <t xml:space="preserve">    Dr. Fleming. Thank you, Mr. Risenhoover.    Next the Chair recognizes Mr. Nick Wiley, Executive Director of the Florida Fish and Wildlife Conservation Commission for 5 minutes. Be sure that you are close to the microphone.</t>
   </si>
   <si>
-    <t>Wiley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wiley. Yes, sir. Thank you, Chairman Fleming, Ranking Member Huffman, and members of this subcommittee. I appreciate the invitation to testify, and we do support this legislation.    Red snapper is an iconic fishery in the Gulf of Mexico. However, red snapper management has been increasingly fraught with uncertainty and controversy. Seasons have gotten shorter, despite continued rebuilding success and higher quotas. In 2007, the recreational season was open for 194 days. This year the Federal recreational harvest season was open only 10 days for private anglers, and 44 days for federally-permitted for-hire vessels.    This is a highly divisive and unacceptable situation that short-changes private anglers in Federal waters and for-hire vessels in state waters. It forces states to provide longer seasons in state waters to compensate. It is clear our red snapper management system needs major changes to better balance management flexibility with strong conservation measures.    The Gulf Red Snapper Act would do precisely this by transferring management authority to the Gulf states and providing a robust framework for continuing the rebuilding of red snapper stocks, while providing more acceptable access to red snapper fishing.    The Gulf states are well qualified to manage red snapper because they have a track record of successful conservation and management of state fisheries. In Florida, nearly all stocks managed by my agency, FWC, are meeting or exceeding management goals. Fisheries, like spotted sea trout, red drum, and snook, have been rebuilt under state management and are thriving. Most of Florida's most valuable commercial fisheries, like spiny lobster, stone crab, and blue crab, are managed exclusively by the state, or with the state in a leading role.    FWC has an excellent track record for providing science-informed, sustainable access to a wide diversity of fishing opportunities. Our Fish and Wildlife Research Institute conducts fisheries research, stock assessments for state- and federally-managed species, and is considered a national leader in marine fishery science.    FWC also effectively enforces fishery regulations in state and Federal waters, and would continue to do so for red snapper under state management.    The Gulf Red Snapper Act offers major improvements over the current management process.    First, it provides a way to tailor red snapper regulations to local needs. Management that works for fishermen in Florida does not always work for other states. Even within Florida, the needs of anglers in Naples differs from the needs of anglers in Pensacola. The Gulf Red Snapper Act would provide much-needed flexibility for states to meet varying stakeholder interests within each state, while continuing to improve the fishery.    The Gulf Red Snapper Act also increases opportunities for stakeholders to engage in the fishery management process. Sometimes the Council meeting can be 1,000 miles away from Florida. With this program, states will be taking the lead, and the people can come and testify at local meetings, directly to their state commissions. FWC's rulemaking process also is nimble enough to respond quickly to the needs of fishermen and resource changes. This approach could continue under this Act. In contrast, the current Federal process can take years to make necessary changes that balance rebuilding with fishing access.    The Gulf Red Snapper Act would provide oversight to ensure that each state is accountable, adequately monitoring their landings, and achieving conservation. All five Gulf states now have programs to collect more accurate and timely data from anglers who fish for red snapper.    Florida's program is called the Gulf Reef Fish Survey, and was developed largely at the request of fishermen who understand that more precise and timely science allows for better management decisions and optimization of fishing access. These state-run programs have great promise for improving recreational red snapper data collection and management under this Act.    FWC is committed to ensuring fair access to red snapper for all fishermen. Commercial red snapper management through the IFQ program is highly accountable and successful. FWC is willing to provide strong assurances that this program will continue, and we will work closely with our commercial fishing industry, so they can continue to provide a generous supply of fresh Florida red snapper to our residents and visitors.    Similarly, FWC will continue to support Florida's for-hire industry, and recognizes their critical contribution to Florida's coastal communities, culture, and tourism economy.    In conclusion, I am confident the Gulf red snapper can be successfully managed through this legislation. It provides flexibility the states need to create solutions that work for anglers, commercial fishermen, for-hire businesses, and local communities.    Mr. Chairman, committee members, this concludes my testimony, and I really appreciate this opportunity to provide FWC's perspective. Thank you.</t>
   </si>
   <si>
@@ -292,9 +271,6 @@
     <t>412510</t>
   </si>
   <si>
-    <t>Doug LaMalfa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LaMalfa. Thank you, Mr. Chairman.    Mr. Risenhoover, just one basic question here. We heard a lot of talk about using the science involved. Basically what I am wondering is why, if the states have better data on fish counts, fish harvest--it does not seem that scientific, it seems like they have the stats, from my understanding, available to them that have pretty accurate counts, much more within range than what we are hearing from what NOAA's numbers are.    So, why wouldn't we move more toward using that more accurate information, and basing harvests off of that and the other policies?</t>
   </si>
   <si>
@@ -391,9 +367,6 @@
     <t>400041</t>
   </si>
   <si>
-    <t>Madeleine Z. Bordallo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you very much, Mr. Chairman. I am an advocate for the Council management of our Nation's fisheries that take into account flexibility for local fisheries and local conditions.    I am from the Pacific area. And with that part of the ocean bordering so many other nations, we have the continued threat of our fisheries being overfished. But we must also weigh the concerns of particularly my community, the Guam fishing community.    Regarding this bill, I do support the spirit of the bill, but I do have concerns.    Mr. Risenhoover, I am going to ask you this question. I understand the Council has recently set up an advisory panel on recreational red snapper to help private boat anglers. How can the Council be more helpful to private anglers, so they can move forward?</t>
   </si>
   <si>
@@ -466,9 +439,6 @@
     <t>412521</t>
   </si>
   <si>
-    <t>Alan S. Lowenthal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Lowenthal. Thank you. First, I applaud Congressman Graves for taking on this issue. There are problems with the fishery. I am just really using this to learn more about it, what the issues really are. I do not consider myself an expert on this. I'd like to work on this. I do have some concerns----</t>
   </si>
   <si>
@@ -589,9 +559,6 @@
     <t>400029</t>
   </si>
   <si>
-    <t>Rob Bishop</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you. And we are just in panel one? OK. I appreciate you being here. I am sorry I was late, I was on the Floor before coming in here.    As I understand it, the bill's premise is that the states can do a better job than the Federal Government in managing our fishery resources, which is, admittedly, a low bar. But having said that, I am also looking in here with the idea that we are not in the business of putting people out of business. I want to make sure that we have safeguards in there for commercial, charter fisheries. And I believe all three of you would say that is the same goal.    But also, the status quo of having 10 days for recreational fisheries in Federal waters for red snapper is simply unacceptable. The status quo must change in some way. But let me, therefore, ask a couple of questions.    First, to our friends from Louisiana and Florida, in your written testimonies--which I had a chance to read--as well as the five-state plan, you indicate that the states are better equipped to manage the fishery. If that is the case, I guess the question is why should American taxpayers continue to pay for management of the snapper, when it would no longer be Federal Government managing the fishery? Could you respond to that one?</t>
   </si>
   <si>
@@ -640,9 +607,6 @@
     <t xml:space="preserve">    Dr. Fleming. Very good. Thank you, Mr. Chairman. And last in the first round we have Mr. Scott. You are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman. I appreciate you allowing me to participate in this. I have fished the Gulf of Mexico since my granddad took me to fish off the Steinhatchee Bridge. And, as I was telling war stories with the good captain before, I think we have probably fished against each other in the Bay Point Billfish Tournament. The gentleman that ran our boat was a commercial fisherman. Certainly, I have no intent whatsoever to take anything from the commercial industry, or hurt them in any way, shape, or form.    As someone who spent a lot of days on the Gulf, though, I do feel like the Council has taken something that was a right that Americans had--from them, the American fishermen. When we originally started making the changes to the fishery, I want you to know I actually supported a reduction in the number of days. I called, spoke to Roy Crabtree, as a matter of fact, told him I felt like our bycatch--that we were killing too many fish.    One of the things that does not get talked about much is the fact that bringing the fish home does not kill the fish any deader than catching it and then throwing it back in the water. It does not make any difference to the population if I catch the fish in state waters, in the front of the boat, or if I catch it in Federal waters, in the back of the boat. The fish is still dead. In some cases I can bring him to shore, and in some cases I cannot, if I am across this line that the fish do not know about.    But Mr. Crabtree testified--with due respect, Mr. Risenhoover--that the population of snapper was larger than it had been in the last 30 to 40 years. This was just a couple of weeks ago on----</t>
   </si>
   <si>
@@ -676,27 +640,18 @@
     <t xml:space="preserve">    Dr. Fleming. OK. The gentleman yields back. To the first panel, we thank you. Great job. We may have more questions for you that we may provide to you later in writing. We would appreciate a response within 10 days. You are now excused, and we ask the second panel to step forward.    While the second panel is coming forward, I will go ahead and begin introducing them in the interest of time.    First is Mr. Christopher Horton, Fisheries Program Director of the Congressional Sportsmen's Foundation from Bismarck, Arkansas; Captain Gary Jarvis, Owner of Back Down 2 Charters from Destin, Florida; Mr. Bob Zales, President of the National Association of Charterboat Operators from Hurley, Mississippi; Mr. Jason DeLaCruz, President and COO of Wild Seafood Company from East Madeira Beach, Florida; Ms. Haley Bittermann, Corporate Executive Chef and Director of Operations for Ralph Brennan Restaurant Group, New Orleans, Louisiana; and Mr. David Cresson, Executive Director and CEO of the Coastal Conservation Association from Baton Rouge, Louisiana.    If everything goes right, everybody is sitting in the correct order. I cannot see all the names. OK, we are good.    OK. Our panel of witnesses, we thank you for joining us today. Let me remind you about our Committee Rules. You must limit your oral statements to 5 minutes, but the entire statement will appear in the hearing record.    I will also explain about the lights. You will be under a green light for 4 minutes, then a yellow light for the last minute. The light turns red quickly--conclude your statement.    We will probably be called for votes in about 15 minutes. We will try to get through the entire panel, if at all possible. Then we will recess and come back afterwards for questions.    The Chair now recognizes Mr. Christopher Horton, Fisheries Program Director at the Congressional Sportsmen's Foundation to testify.</t>
   </si>
   <si>
-    <t>Horton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Horton. Thank you, Mr. Chairman, Congressman Huffman, and members of the committee. My name is Chris Horton, I am the Fisheries Program Director for the Congressional Sportsmen's Foundation.    I began my career as a fisheries management biologist for a state natural resource agency, and then as the Conservation Director for BASS before joining CSF in 2010. I currently serve on the Recreational Fisheries Working Group of the Marine Fisheries Advisory Committee, and I have served previous terms on the Sport Fish Partnership Council, as well as the National Fish Habitat Board.    However, I am also a private recreational angler that goes to the Gulf of Mexico at least twice a year to fish both inshore and offshore. I am thankful for the opportunity to be back before your committee to discuss the issue of Federal management of our recreational fisheries, and specifically in the context of H.R. 3094.    In my 2013 testimony regarding the Marine Recreational Information Program, or MRIP, I tried to convey how this program, though a significant improvement over the old MRF system, would never be able to provide the necessary information for in-season quota monitoring and closures that the Federal system management requires, especially for red snapper. Two years later, we are still in that same boat. Because of both an inadequate data collection system and an inappropriate model for the recreational sector, we continue to be penalized for a rebuilding fishery.    Based on my previous experience of managing a fishery for a state agency, I know the states can do better. The problem is not with MRIP itself, which is actually a pretty good program for what it was designed to do, and that is to be a broad, general survey to measure angler effort and catch across multiple species around our Nation's coasts. It was never intended to collect precise data for a specific fishery that lasts only a few days.    Red snapper harvest estimates are not available until at least a month after the season has ended, so it is impossible to determine if NOAA's best guess at the season length resulted in supposedly too many fish being caught, or the fact that we could have actually fished a few more days.    Frustrated with managing the fishery based on guesswork, the states have developed their own angler data collection programs. As Secretary Barham has mentioned, Louisiana started LA Creel in 2013, which was funded by an increase in license fees, fully supported by their anglers because they trusted that their state agency could do a better job. During its first year alone, LA Creel was able to survey around 50 times more anglers and intercept around 23 times more harvested fish than the MRIP survey in the state.    But to truly manage a fishery, you need to know more than just what the anglers are harvesting. You need to understand what the population looks like and how it responds to your management actions in real time. Relying heavily, as the Federal model does, on getting a picture of the population primarily by what has landed on the docks is an inherently biased way to approach it. That is why, generally, states assess populations based largely on fishery-independent data, like catch-per-unit effort, as a foundation. Not only does catch-per-unit give you better estimates of population abundance, but this type of fishery-independent sampling allows an opportunity to collect reliable information on size and age structure, relative health of fish within the fishery, et cetera.    This level of understanding of what is going on with the actual population and the capacity to respond in real time is what makes state management more effective than Federal management. One need only look at the state-managed fisheries to see the resounding success of their management approach, both in fresh water and salt water fisheries.    State fisheries managers use the same model, whether managing primarily catch-and-release trophy fisheries, like some large-mouth bass, trout, and snook, or catching grease fisheries, as we would call it in the South, popular harvestable fish like crappie, spotted sea trout, or walleye, because it works, regardless of management.    That is why you practically never hear of fisheries managed under the state model as being overfished or collapsing. Despite what some may lead you to believe, this is not commercial fishermen versus charter-for-hire fishermen versus individual anglers. While the current model is supported by a handful of commercial fishermen fortunate enough to be handed a share of the public resource, it is not appropriate for the recreational sector--either private anglers or the charter-for-hire industry.    The Gulf red snapper population is a public trust resource, and the American public deserves an accountable management system that optimizes access to that resource. H.R. 3094 will provide that accountability, preserve the current commercial fishery as is, and ensure continued sustainability of the red snapper fishery, promote access for all anglers, whether they pay a charter captain to take them to their fish or have the means to catch them themselves.    For this reason, I urge you to support H.R. 3094, and ensure the appropriate management of this important species for the benefit of all Americans. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you, Mr. Horton.    The Chair now recognizes Mr. Jarvis for 5 minutes.</t>
   </si>
   <si>
-    <t>Jarvis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jarvis. Chairman Fleming, Ranking Member Huffman, and distinguished committee members, thank you for giving me this opportunity to share my concerns and thoughts that represent those of thousands of businessmen in northwest Florida and the Gulf of Mexico who are tied to the professional fishing and tourism industry.    For the past 39 years, I have fished for red snapper and other species recreationally and commercially, and have run a highly successful charter-for-hire operation. I am now an investing partner and owner with my two sons in three waterfront seafood restaurants in Destin. I represent my own small business and over 80 charter operators as the president of the Destin Charter Boat Association, the largest federally-permitted for-hire fleet in the Gulf of Mexico. I am also a board member of the Northwest Florida Chapter of the Florida Restaurant and Lodging Association, which has more than a million members in the state.    I want to make clear that this legislation is very controversial among Gulf fishermen, restaurant owners, and others involved in the seafood industry throughout the United States. Many of us strongly believe that if Congress passes this bill, it will harm small coastal businesses, tourism, and the red snapper fishery itself.    I question the need for H.R. 3094 when existing provisions in the Magnuson-Stevens Act are capable of addressing every issue this bill claims to fix. In fact, the rebuilding progress due to MSA has been so effective that this year the annual catch limit for red snapper increased by 30 percent, bringing landings from 11 million pounds to over 14. That is more than two times the entire annual catch limit of 5.1 million pounds in 2005. This increase is a result of uniform Gulf-wide management, and it happens even with the states actively working against Federal management by opening longer seasons in their state waters.    The MSA has been the gold standard of resource management for 40 years. This bill would take a single species of fish out of the MSA under the guise that somehow individual coastal states can manage it better. This proposal would give five state wildlife directors total control over a valuable fishery, and create a system with less oversight, fewer checks and balances, fewer resources, fewer science protocols, and little to no stakeholder input. A three-member voting body could dictate winners and losers in the red snapper fishery. And, for our fleet, that is worrisome.    There are no specifics in this bill to show how the states will pay to duplicate stock assessment resources for one species. This plan is a monetary black hole and creates inefficiencies and bureaucracies that do not make good sense. There has been no proof that this would actually result in better management. In my opinion, H.R. 3094 will open the door for special interests, political malfeasance by taking red snapper management out from under the oversight of congressional stewardship and Federal law.    Proponents of this bill do not offer any road map for how H.R. 3094 is to address failures in the Federal management of red snapper by the Gulf Council and the five Gulf states. They already have significant influence in management decisions through the Gulf Council.    This legislation stems from the so-called problem that was created, in part, by the states themselves. The states continue to extend red snapper season in their waters, despite the majority of the red snapper biomass existing in Federal waters. These state policies have only hurt the private angling fishing experience. And now, much of the yearly recreational allocation is caught in state waters, while Federal waters are closed, blocking our charter customers' access to the fishery.    The federally-permitted commercial and charter-for-hire sectors have worked tirelessly through the Regional Council process and under Federal law to develop fishery management plans that will work to increase public access to the red snapper fishery, to promote tourism, commerce, and successful fishing businesses Gulf-wide. It is only the private boat lobby and their state agencies who want to circumvent Federal law to suit their own needs, without coming up with any concrete solutions. The recreational angler organizations have the same opportunities and the same capabilities as we do to work through the Council process.    H.R. 3094 is a private boat lobby's attempt to take a public resource from the majority of our Nation's citizens to create an elite, private angler fishery. Most Americans cannot afford blue water fishing boats that cost $75,000 to $300,000 to access red snapper. That is another reason why we object to this legislation. We feel all Americans should have a form of affordable access to wild-caught Gulf seafood, whether on a plate or at the end of a pole aboard an affordable charter trip.    Remember, our businesses are the access portal of federally-managed species for the majority of the U.S. population and your constituents. The entire allocation for charter-for-hire and commercial fishing companies are caught or consumed by the U.S. public. For these reasons we want no part of H.R. 3094 or the attempt by the private boat lobby to rob our for-hire customers and seafood consumers of their historical access to this Nation's fishery resource.    On behalf of the Destin Charter Boat Association, and in my individual capacity as a northwest Florida businessman and community representative, I respectfully ask the subcommittee members to end this attempt to circumvent the MSA and to keep the Gulf red snapper fishery under Federal management. Thank you.    [Applause.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you, Mr. Jarvis. The Chair now recognizes Mr. Zales, President of the National Association of Charterboat Operators.</t>
   </si>
   <si>
-    <t>Zales</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Zales. Chairman Fleming, Ranking Member Huffman, and members of the subcommittee, my name is Robert F. Zales, II. I am appearing today on behalf of the National Association of Charterboat Operators. Thank you for your invitation to present testimony on H.R. 3094, that will add desperately needed and long overdue flexibility to the management of Gulf of Mexico red snapper by allowing the five Gulf states the ability to take over management.    NACO represents charterboat owners and operators across the United States, including the Great Lakes, with a substantial membership from the Gulf of Mexico. My family and I have been in the charter and commercial fishing sectors for 50 years. Until this May, I was actively involved in fishery management for over 26 years, providing advice, testimony, publications, and helping to design charter fishing data collection programs on Federal, state, and local levels. Due to my mother's recent medical issues that began this past April, I have resigned from all the voluntary advisory positions I have held to take care of her, but still stay abreast of all issues that affect my industry.    The majority of the members in the Gulf have no confidence in the continued management of red snapper by the NMFS. Stakeholders have made multiple requests to state marine source agencies to take over data collection and provide more local control over red snapper, resulting in all five Gulf states developing new and improved data collection methods and an improved effort in Congress to advance H.R. 3094.    We have worked with Congress to make positive changes to the MSA on collection of recreational fishery data and other management issues. Current requirements of the MSA are overly restrictive, require arbitrary rebuilding timelines based on no science, and do not allow any flexibility in management. Flexibility in management must be allowed, which is why we fully support and encourage the passage of H.R. 3094.    Problems with the NMFS management of red snapper are many, and apparently cannot be fixed under Federal management. In the Gulf of Mexico, when you put a baited hook in the water, odds are you will catch a red snapper. While the red snapper biomass continues to increase, the number of days available to the recreational sector has steadily declined since 1996, and has been drastically reduced since 2007.    When you view the biomass growth of red snapper over time, you see a steady upper trend with no decline in any year, regardless of any quota over-runs. The NMFS has consistently punished the recreational sector by reducing allowed days of fishing for red snapper due to over-runs which have never adversely affected the growth of the fishery or restricted any efforts to reach the rebuilding target.    In 2009, in retaliation to the state of Florida and a charter-for-hire fleet for their action to keep state waters open to recreational red snapper fishing when the NMFS closed the EEZ, Dr. Crabtree had the Gulf Council pass a regulatory amendment, typically known as 30B, that restricted all federally-permitted charter-for-hire vessels to compliance with Federal regulations, regardless of where they fish. This single act created more disruption and division among the recreational sector than any other action I have witnessed, and caused a significant rift in the recreational angling community.    The 30B rule has denied access and the opportunity to catch red snapper to thousands of recreational anglers. Charter vessel owners and operators do not harvest recreational fish, the recreational angler on board does. Charter vessels are simply the platforms providing anglers the opportunity to fish recreationally.    The Environmental Defense Fund was successful, scheming with the NMFS and a small group of red snapper commercial fishermen, in instituting IFQs in 2007. The majority of the commercial red snapper quota is owned by a small group of individuals, who the NMFS has enriched--really made millionaires by giving them the public fishery resource. Over 15 percent of the red snapper commercial quota is owned by people who do not even own a vessel, as they do not fish the IFQs. Rather, they lease their shares to other commercial fishermen, much like old-time plantation owners who allowed sharecroppers to farm the land.    The well-funded effort by EDF through their shill, puppet organizations such as the Charter Fishermen's Association, Shareholder Alliance, and Gulf Seafood Institute, over the past several years has resulted in the recently NMFS-approved amendment 40, severing the recreational charter-for-hire sector from the recreational sector. This amendment was approved by a 9-7 Council vote over thousands of objections and public testimony provided by stakeholders. The majority of permitted charter-for-hire vessel owners do not support this segregation.    The pseudonym for EDF in the Gulf is Charter Fishermen's Association. Despite CFA assertions, the majority of the charter-for-hire fleet opposes the status quo and supports H.R. 3094.    Recreational fisheries are not commercial fisheries and cannot be managed the same way. Red snapper management is not a one-size-fits-all scheme. Every area between Key West and Brownsville has different fishing seasons, tourist seasons, and needs. States provide improved and more accurate recreational data, as has recently been proven in Louisiana, Alabama, Mississippi, and with new efforts in Florida. Each state has proved to be a successful steward of both state- and federally-managed species.    Regional management makes it easier for the public to participate through more local and more convenient outlets. States will have the ability to use a superior management program, as done----</t>
   </si>
   <si>
@@ -709,25 +664,16 @@
     <t xml:space="preserve">    Dr. Fleming. OK, Mr. Zales, thank you for your testimony. Mr. DeLaCruz, you are recognized for 5 minutes. STATEMENT OF JASON DeLaCRUZ, PRESIDENT AND COO, WILD SEAFOOD </t>
   </si>
   <si>
-    <t>DeLaCruz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeLaCruz. Thank you, Chairman Fleming, Ranking Member Huffman and members of this subcommittee. Thank you for the opportunity to address you to promote the proposed Gulf States Red Snapper Management Authority Act. My name is Jason DeLaCruz, I am a commercial spear fisherman and a fish house owner in Madeira Beach, Florida.    Let me start by saying that I cannot support this proposal, and neither can the commercial fishermen and seafood suppliers in Florida and Texas that I speak for today. H.R. 3094 will undermine the commercial fishing businesses and our ability to provide the American people with sustainably-harvested red snapper. My message here today is consistent to what we have heard from the commercial industry from day one. I cannot support state management of the commercial red snapper fishery in the Gulf of Mexico.    Our fish house, Wild Seafood Company, handles more than three-quarters of a million pounds of fish. My business is made up of 15 boats, 50 captains and crew, and 15 staff. I also sell bait, tackle, and ice to the recreational public at my marina.    When I am not at the dock or in the water, I am improving the way fisheries management is handled in our Gulf. I am a member on the Fishery Advisory Panel for the Gulf Council and am part of the Fishery Advisory Committee for Congressman Jolly in my local county. I am also the Vice President of the Gulf of Mexico Reef Fish Shareholders' Alliance, and the Executive Director of Gulf Wild, two industries working hard to improve fishery management and also seafood traceability in the Gulf.    Sometimes I wish for simpler days, when I just got to go spearfishing and do what I love. But being a fisherman today is not just about catching fish any more, it is about finding solutions to preserve the long-term health of our fisheries and our business. To that end, I would like to address three points.    My first point is that commercial fishing is a success under the Magnuson-Stevens Act and should not be turned over to the Gulf states. Magnuson-Stevens is the bipartisan backbone of the management system and the reason that we have a rebounding red snapper fishery today. Strict rebuilding requirements, mandatory accountability measures, and a common core of conservation have tripled the commercial quota in the last 10 years, as a testament to its effectiveness as a Federal fisheries law.    The new commercial program, that was put in place in 2007, has kept us remaining within our quota and our science-based quotas, and fishing year-round. Fishing businesses are profitable, the flow of fish in the marketplace is stable and growing, and the fishing and shoreside jobs are being promoted. Don't undermine this by turning this fishery over to the Gulf states.    The second point is that this bill threatens the commercial fishery and the seafood supply chain. H.R. 3094 opens up loopholes that will erode the commercial fishery. It will allow three individuals to eliminate 10 percent of the red snapper fishery every year without discussing it with the Gulf Council, a stakeholder group that, as we know, is accessible by all stakeholders. All five states already voted to take red snapper away from the commercial fishermen and the consumers earlier this year, so why would we think that anything would be any different under the state management?    H.R. 3094 leaves too much to chance. It does not define what is meant by a satisfactory enforcement plan, nor does it define what necessary measures it would use to rebuild the fishery. It only explains that public participation will be adequate. Commercial fishermen are not willing to gamble our businesses on the weakened enforcement, diminished rebuilding measures, and restricted public access to the system.    The third point is that H.R. 3094 sets a dangerous, controversial precedent. The conversation is not just about red snapper, it is about setting a precedent where states can eliminate the commercial fishery. Over 40 commercial fishing organizations on the east and west coasts of the United States and Alaska have come out against state takeover. These organizations represent thousands of commercial fishermen and tens of millions of pounds of commercially-important seafood. These fishermen all oppose this plan.    In conclusion, we want to remain under the Federal fishery management protections and conservation requirements of the Magnuson-Stevens Act. H.R. 3094 threatens our business and sets a controversial precedent to impact fishermen and seafood consumers everywhere. Every fisherman from regions known to this--know this is a bad idea. We cannot support H.R. 3094. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you, Mr. DeLaCruz.    Ms. Bittermann, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Bittermann</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bittermann. Chairman Fleming, Ranking Member Huffman, and members of the subcommittee, my name is Haley Bittermann, and I am the Executive Chef and Director of Operations for the Ralph Brennan Restaurant Group in New Orleans, Louisiana. I welcome the opportunity to speak with you today about red snapper management in the Gulf, as well as H.R. 3094, the Gulf States Red Snapper Management Authority Act.    The Ralph Brennan Restaurant Group employs approximately 700 employees in nine restaurants in both Louisiana and California. Our restaurants are known worldwide, and serve approximately 1 million guests every year. Louisiana's restaurants currently account for 203,000 jobs, which equates to 10 percent of the private-sector employment, making restaurants the largest private employer in the state. Our restaurants are projected to register 7.3 billion in sales in 2015 alone, so preserving access to the resources that keep this economic engine running is critical to our state's bottom line.    I am also here representing the restaurant industry and the National Restaurant Association, which is the leading business association for the industry, comprising 1 million restaurant and food service outlets. The industry employs 14 million people, about 10 percent of the U.S. workforce, and is the Nation's second-largest private-sector employer.    Millions of tourists visit the Gulf Coast every year, seeking our local sustainable Gulf seafood. In fact, National Restaurant Association research indicates that, of the top 10 culinary trends in 2015, locally-sourced seafood ranked first, and sustainable seafood ranked eighth.    Unfortunately, in the Gulf, we have watched a huge number of our popular seafood items become import-only or recreational-only fish. Red snapper used to be rarely available as a fresh fish before the commercial fishery improved its management and began the individual fishing quota program in 2007. Now, I can vouch for the fish being sustainable and wild caught and, in some instances, it can even be traceable back to the fisherman who caught it.    Gulf red snapper is currently being managed under a rebuilding plan, and commercial fishermen are no longer exceeding catch limits. Under this program, restaurants like ours can now depend on a steady stream of snapper to fulfill our orders during times of peak demand. However, under this legislation the successes we are experiencing as a result of this Federal program may be completely undone.    The fishermen I work with are diametrically opposed to shifting management authority to the states. This bill could allow the reallocation of almost 10 percent per year of red snapper away from the commercial sector to the recreational sector. History shows us that this is a very real possibility.    Sustainability of the fishery is another concern I have with this legislation, as there is no guarantee that Federal sustainability standards will be preserved. This legislation relies heavily on a state management regime to solve the problems facing private anglers, and experience has shown us that this is not always a wise decision.    For example, red drum, once an important commercial fishery, is now almost wholly restricted to recreational anglers. In response to concerns regarding overharvesting in the late 1980s, the Gulf states designated it as a game fish only, thus eliminating it as a menu item for restaurants.    Now, after nearly 30 years as a game fish in almost all Gulf states, the stock has rebounded and recreational catch is at an all-time high. Yet commercial fishers remain shut out. The Gulf states have shifted the catch to recreational and refuse to consider opening it back up. In fact, because of this, the only red fish we serve at Red Fish Grill in New Orleans is farm-raised.    At the state level, it appears that the needs of the private anglers outweigh those of consumers, restaurants, and the seafood community. The current system provides Federal oversight to allocation decisions. In addition, the Gulf Council represents a cross-section of stakeholders, and Council decisions are transparent. We already have a system that works--that is why the restaurant community opposes shifting the management to the states only.    Gulf red snapper is an American treasure that should be accessible to all, not just those who can afford to fish for it themselves. As a recreational fisherman myself, I want to be sure it is available for generations to come. I believe that if we take a balanced approach to fixing what is broken, which is the recreational management, that Louisiana can be both a sportsman's paradise and the restaurant capital of the United States. We should not have to pick winners and losers.    Thank you for the opportunity to testify, and I look forward to answering any questions you may have.    [Applause.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you. Thank you, Ms. Bittermann.    Next and last, but not least, David Cresson, Executive Director and CEO of the Coastal Conservation of America (sic).</t>
-  </si>
-  <si>
-    <t>Cresson</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Cresson. Thank you, Mr. Chairman, Congressman Huffman, and members of the committee. Thank you for having me. My name is David Cresson, and I am the Executive Director of the Coastal Conservation Association of Louisiana. CCA is the Nation's largest conservation group of its kind, with 120,000 members and 19 state chapters on 3 coasts. I am also an avid angler myself, and I fish with my best fishing buddies, my three kids, as often as possible.    On behalf of all CCA members, we would like to thank Congressman Graves for recognizing the challenges facing the recreational angling community, and for working with the states to create a path toward a better situation for all stakeholders: commercial, charter-for-hire, and recreational.    I am not here to denigrate commercial fisheries, nor are we advocating for the elimination of commercial fishing. We simply want a system that provides appropriate access to the resource, something that is sorely lacking in the current management system for Gulf red snapper. Currently, almost 75 percent of the snapper resource is in the hands of private business. The rest of us get 10 days. That is simply unacceptable.    You have heard praise for the catch share programs being used today. And some would have you believe that privatization of more than half the red snapper stock is the sole reason the stock has recovered. It is not. Recreational anglers are mostly responsible for the miraculous recovery of the resource.    In 2005, a lawsuit brought by concerned anglers forced NOAA to finally take action on the badly depressed stock, and called for a nearly 80 percent reduction in snapper mortality from shrimp trawls. After 30 years of mismanagement and failed policy by NOAA, it was recreational anglers who brought about change and put the stock in the position it is in today.    It has been said here that recreational anglers are not accountable. Nothing could be further from the truth. It is the Federal system that is unaccountable to recreational anglers, and has produced results that make no sense. We have been asked to come up with a management plan. We have. The states have developed and, in some cases, have implemented these plans already.    In Louisiana, in fact, anglers supported a 50 percent license fee increase for the sole purpose of enhanced data collection through the highly effective LA Creel program. Anglers gladly work with the states to develop, pay for, and provide information to the state-based programs.    We trust the states; they listen. They have successfully managed species like red fish, speckled trout, bass, flounder, black drum, crab, shrimp, oysters, crawfish, catfish, and more. The state works to make fishing enjoyable and available, while managing for abundance. Meanwhile, the Federal system aims to privatize the resource for a select few, and limit access to the general public.    We have been at this for a while. And all we have to show for it are a few poorly placed bandages. Please support this bill, and let the states do what they have done very well for many years: manage their fisheries with great success.    Thank you, and I am glad to answer any questions.</t>
@@ -1402,11 +1348,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1428,11 +1372,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1454,11 +1396,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1478,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1506,11 +1444,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1532,11 +1468,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1556,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1582,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1610,11 +1540,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1634,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1660,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1688,11 +1612,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1712,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1738,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1766,11 +1684,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1790,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1818,11 +1732,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1842,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1870,11 +1780,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1894,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1922,11 +1828,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1946,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>37</v>
-      </c>
-      <c r="H23" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1972,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2000,11 +1900,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2024,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2052,11 +1948,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2076,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2104,11 +1996,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2128,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2156,11 +2044,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2180,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2208,11 +2092,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2232,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2260,11 +2140,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2284,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2312,11 +2188,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2336,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2364,11 +2236,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2388,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2416,11 +2284,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2440,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2468,11 +2332,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2492,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2518,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2544,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2570,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2596,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2622,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
-      </c>
-      <c r="G49" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2648,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2674,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
-      </c>
-      <c r="G51" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2700,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2726,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2752,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2778,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2804,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2830,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2856,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2882,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
-      </c>
-      <c r="G59" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2908,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2934,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2960,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2986,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3012,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3038,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3064,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3090,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3116,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3144,11 +2956,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3168,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>91</v>
-      </c>
-      <c r="G70" t="s">
-        <v>92</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3194,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
-      </c>
-      <c r="G71" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3220,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" t="s">
-        <v>92</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3246,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
-      </c>
-      <c r="G73" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3272,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" t="s">
-        <v>92</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3298,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
-      </c>
-      <c r="G75" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3324,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
+        <v>84</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
         <v>91</v>
-      </c>
-      <c r="G76" t="s">
-        <v>92</v>
-      </c>
-      <c r="H76" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3350,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
-      </c>
-      <c r="G77" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3376,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" t="s">
-        <v>92</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3404,11 +3196,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3428,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" t="s">
-        <v>92</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3454,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3480,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
-      </c>
-      <c r="G82" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3506,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3532,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
-      </c>
-      <c r="G84" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3558,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3584,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
-      </c>
-      <c r="G86" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3610,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3636,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
-      </c>
-      <c r="G88" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3662,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3688,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G90" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3714,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3740,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
-      </c>
-      <c r="G92" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3766,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3792,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
-      </c>
-      <c r="G94" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3818,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3844,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
-      </c>
-      <c r="G96" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3870,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3896,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
-      </c>
-      <c r="G98" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3922,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3950,11 +3700,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3974,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>124</v>
-      </c>
-      <c r="G101" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4000,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
-      </c>
-      <c r="G102" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4026,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>124</v>
-      </c>
-      <c r="G103" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4052,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
-      </c>
-      <c r="G104" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4078,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>124</v>
-      </c>
-      <c r="G105" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4104,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
-      </c>
-      <c r="G106" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4130,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>124</v>
-      </c>
-      <c r="G107" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4156,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
-      </c>
-      <c r="G108" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4182,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>124</v>
-      </c>
-      <c r="G109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
         <v>125</v>
-      </c>
-      <c r="H109" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4208,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
-      </c>
-      <c r="G110" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4234,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>124</v>
-      </c>
-      <c r="G111" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4260,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
-      </c>
-      <c r="G112" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4286,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>124</v>
-      </c>
-      <c r="G113" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4312,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
-      </c>
-      <c r="G114" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4338,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>124</v>
-      </c>
-      <c r="G115" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4366,11 +4084,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4390,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>124</v>
-      </c>
-      <c r="G117" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4416,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4442,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>124</v>
-      </c>
-      <c r="G119" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4470,11 +4180,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4494,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>124</v>
-      </c>
-      <c r="G121" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4522,11 +4228,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4546,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>124</v>
-      </c>
-      <c r="G123" t="s">
-        <v>125</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4572,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>149</v>
-      </c>
-      <c r="G124" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4600,11 +4300,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4624,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>149</v>
-      </c>
-      <c r="G126" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4650,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
-      </c>
-      <c r="G127" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4676,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>149</v>
-      </c>
-      <c r="G128" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4702,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
-      </c>
-      <c r="G129" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4728,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>149</v>
-      </c>
-      <c r="G130" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4756,11 +4444,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4780,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>26</v>
-      </c>
-      <c r="G132" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4806,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
-      </c>
-      <c r="G133" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4832,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>26</v>
-      </c>
-      <c r="G134" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4858,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
-      </c>
-      <c r="G135" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4884,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>26</v>
-      </c>
-      <c r="G136" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4910,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
-      </c>
-      <c r="G137" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4936,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>26</v>
-      </c>
-      <c r="G138" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4962,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
-      </c>
-      <c r="G139" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4988,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>26</v>
-      </c>
-      <c r="G140" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5014,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
-      </c>
-      <c r="G141" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5040,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>26</v>
-      </c>
-      <c r="G142" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5066,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
-      </c>
-      <c r="G143" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5092,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>26</v>
-      </c>
-      <c r="G144" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5118,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
-      </c>
-      <c r="G145" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5144,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>26</v>
-      </c>
-      <c r="G146" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5170,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
-      </c>
-      <c r="G147" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5198,11 +4852,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5222,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>149</v>
-      </c>
-      <c r="G149" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5248,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
-      </c>
-      <c r="G150" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5274,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>149</v>
-      </c>
-      <c r="G151" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5300,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
-      </c>
-      <c r="G152" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5326,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>149</v>
-      </c>
-      <c r="G153" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5352,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
-      </c>
-      <c r="G154" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5378,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>149</v>
-      </c>
-      <c r="G155" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5404,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
-      </c>
-      <c r="G156" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5430,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>149</v>
-      </c>
-      <c r="G157" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5456,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
-      </c>
-      <c r="G158" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5482,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>149</v>
-      </c>
-      <c r="G159" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5508,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
-      </c>
-      <c r="G160" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5534,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>149</v>
-      </c>
-      <c r="G161" t="s">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5562,11 +5188,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5586,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>190</v>
-      </c>
-      <c r="G163" t="s">
-        <v>191</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5612,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
-      </c>
-      <c r="G164" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5638,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>190</v>
-      </c>
-      <c r="G165" t="s">
-        <v>191</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5664,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
-      </c>
-      <c r="G166" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5690,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>190</v>
-      </c>
-      <c r="G167" t="s">
-        <v>191</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5716,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
-      </c>
-      <c r="G168" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5742,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>190</v>
-      </c>
-      <c r="G169" t="s">
-        <v>191</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5768,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>190</v>
-      </c>
-      <c r="G170" t="s">
-        <v>191</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5794,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
-      </c>
-      <c r="G171" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5820,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
-      </c>
-      <c r="G172" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5846,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>190</v>
-      </c>
-      <c r="G173" t="s">
+        <v>180</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
         <v>191</v>
-      </c>
-      <c r="H173" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5872,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
-      </c>
-      <c r="G174" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5898,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>190</v>
-      </c>
-      <c r="G175" t="s">
-        <v>191</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5924,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
-      </c>
-      <c r="G176" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5950,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>190</v>
-      </c>
-      <c r="G177" t="s">
-        <v>191</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5978,11 +5572,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6002,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
-      </c>
-      <c r="G179" t="s">
-        <v>208</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6028,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
-      </c>
-      <c r="G180" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6054,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
-      </c>
-      <c r="G181" t="s">
-        <v>208</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6080,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
-      </c>
-      <c r="G182" t="s">
-        <v>208</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6106,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
-      </c>
-      <c r="G183" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6132,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
-      </c>
-      <c r="G184" t="s">
-        <v>208</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6158,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
-      </c>
-      <c r="G185" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6184,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
-      </c>
-      <c r="G186" t="s">
-        <v>208</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6210,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
-      </c>
-      <c r="G187" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6236,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
-      </c>
-      <c r="G188" t="s">
-        <v>208</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6264,11 +5836,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>12</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6288,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
-      </c>
-      <c r="G190" t="s">
-        <v>220</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6316,11 +5884,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>12</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6340,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
-      </c>
-      <c r="G192" t="s">
-        <v>223</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6368,11 +5932,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>12</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6392,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
-      </c>
-      <c r="G194" t="s">
-        <v>226</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6420,11 +5980,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6444,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>36</v>
-      </c>
-      <c r="G196" t="s">
-        <v>226</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6472,11 +6028,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6496,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
-      </c>
-      <c r="G198" t="s">
-        <v>231</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6524,11 +6076,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6548,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
-      </c>
-      <c r="G200" t="s">
-        <v>234</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6576,11 +6124,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6600,13 +6146,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
-      </c>
-      <c r="G202" t="s">
-        <v>237</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6628,11 +6172,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6654,11 +6196,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6680,11 +6220,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>12</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6704,13 +6242,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
-      </c>
-      <c r="G206" t="s">
-        <v>234</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6732,11 +6268,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>12</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6756,13 +6290,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
-      </c>
-      <c r="G208" t="s">
-        <v>231</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6784,11 +6316,9 @@
       <c r="F209" t="s">
         <v>11</v>
       </c>
-      <c r="G209" t="s">
-        <v>12</v>
-      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6808,13 +6338,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>36</v>
-      </c>
-      <c r="G210" t="s">
-        <v>223</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6836,11 +6364,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>12</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6860,13 +6386,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>36</v>
-      </c>
-      <c r="G212" t="s">
-        <v>226</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6888,11 +6412,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6912,13 +6434,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
-      </c>
-      <c r="G214" t="s">
-        <v>226</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6940,11 +6460,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6964,13 +6482,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>16</v>
-      </c>
-      <c r="G216" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6990,13 +6506,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
-      </c>
-      <c r="G217" t="s">
-        <v>226</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7016,13 +6530,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>16</v>
-      </c>
-      <c r="G218" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7042,13 +6554,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
-      </c>
-      <c r="G219" t="s">
-        <v>223</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7068,13 +6578,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>16</v>
-      </c>
-      <c r="G220" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7094,13 +6602,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
-      </c>
-      <c r="G221" t="s">
-        <v>223</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7120,13 +6626,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>16</v>
-      </c>
-      <c r="G222" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7146,13 +6650,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
-      </c>
-      <c r="G223" t="s">
-        <v>223</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7174,11 +6676,9 @@
       <c r="F224" t="s">
         <v>11</v>
       </c>
-      <c r="G224" t="s">
-        <v>12</v>
-      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7198,13 +6698,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>26</v>
-      </c>
-      <c r="G225" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7224,13 +6722,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>36</v>
-      </c>
-      <c r="G226" t="s">
-        <v>223</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7250,13 +6746,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>26</v>
-      </c>
-      <c r="G227" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7276,13 +6770,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
-      </c>
-      <c r="G228" t="s">
-        <v>223</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7302,13 +6794,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>26</v>
-      </c>
-      <c r="G229" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7328,13 +6818,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
-      </c>
-      <c r="G230" t="s">
-        <v>223</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7354,13 +6842,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>26</v>
-      </c>
-      <c r="G231" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7380,13 +6866,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
-      </c>
-      <c r="G232" t="s">
-        <v>223</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7406,13 +6890,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>26</v>
-      </c>
-      <c r="G233" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7432,13 +6914,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>36</v>
-      </c>
-      <c r="G234" t="s">
-        <v>223</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7458,13 +6938,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>26</v>
-      </c>
-      <c r="G235" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7484,13 +6962,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
-      </c>
-      <c r="G236" t="s">
-        <v>223</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7510,13 +6986,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>26</v>
-      </c>
-      <c r="G237" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7536,13 +7010,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
-      </c>
-      <c r="G238" t="s">
-        <v>223</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7562,13 +7034,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>26</v>
-      </c>
-      <c r="G239" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7588,13 +7058,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
-      </c>
-      <c r="G240" t="s">
-        <v>231</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7614,13 +7082,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>26</v>
-      </c>
-      <c r="G241" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7642,11 +7108,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>12</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7666,13 +7130,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>36</v>
-      </c>
-      <c r="G243" t="s">
-        <v>208</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7692,13 +7154,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>36</v>
-      </c>
-      <c r="G244" t="s">
-        <v>226</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7718,13 +7178,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>36</v>
-      </c>
-      <c r="G245" t="s">
-        <v>208</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7744,13 +7202,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>36</v>
-      </c>
-      <c r="G246" t="s">
-        <v>226</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7770,13 +7226,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>36</v>
-      </c>
-      <c r="G247" t="s">
-        <v>208</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7796,13 +7250,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>36</v>
-      </c>
-      <c r="G248" t="s">
-        <v>231</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7822,13 +7274,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>36</v>
-      </c>
-      <c r="G249" t="s">
-        <v>208</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7848,13 +7298,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>36</v>
-      </c>
-      <c r="G250" t="s">
-        <v>231</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7874,13 +7322,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>36</v>
-      </c>
-      <c r="G251" t="s">
-        <v>208</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7900,13 +7346,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
-      </c>
-      <c r="G252" t="s">
-        <v>231</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7926,13 +7370,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>36</v>
-      </c>
-      <c r="G253" t="s">
-        <v>208</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7952,13 +7394,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>36</v>
-      </c>
-      <c r="G254" t="s">
-        <v>231</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7978,13 +7418,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>36</v>
-      </c>
-      <c r="G255" t="s">
-        <v>208</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8004,13 +7442,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>36</v>
-      </c>
-      <c r="G256" t="s">
-        <v>231</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8030,13 +7466,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>36</v>
-      </c>
-      <c r="G257" t="s">
-        <v>208</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8056,13 +7490,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>36</v>
-      </c>
-      <c r="G258" t="s">
-        <v>231</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8082,13 +7514,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>36</v>
-      </c>
-      <c r="G259" t="s">
-        <v>208</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8108,13 +7538,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>36</v>
-      </c>
-      <c r="G260" t="s">
-        <v>231</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8134,13 +7562,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>36</v>
-      </c>
-      <c r="G261" t="s">
-        <v>208</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8160,13 +7586,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>36</v>
-      </c>
-      <c r="G262" t="s">
-        <v>231</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8186,13 +7610,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>36</v>
-      </c>
-      <c r="G263" t="s">
-        <v>208</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8212,13 +7634,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>36</v>
-      </c>
-      <c r="G264" t="s">
-        <v>231</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8238,13 +7658,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>36</v>
-      </c>
-      <c r="G265" t="s">
-        <v>208</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8266,11 +7684,9 @@
       <c r="F266" t="s">
         <v>11</v>
       </c>
-      <c r="G266" t="s">
-        <v>12</v>
-      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8292,11 +7708,9 @@
       <c r="F267" t="s">
         <v>11</v>
       </c>
-      <c r="G267" t="s">
-        <v>12</v>
-      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8316,13 +7730,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>26</v>
-      </c>
-      <c r="G268" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8342,13 +7754,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>36</v>
-      </c>
-      <c r="G269" t="s">
-        <v>231</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8368,13 +7778,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>26</v>
-      </c>
-      <c r="G270" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8394,13 +7802,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>36</v>
-      </c>
-      <c r="G271" t="s">
-        <v>234</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8420,13 +7826,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>26</v>
-      </c>
-      <c r="G272" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8446,13 +7850,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>36</v>
-      </c>
-      <c r="G273" t="s">
-        <v>234</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8472,13 +7874,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>26</v>
-      </c>
-      <c r="G274" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8498,13 +7898,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>36</v>
-      </c>
-      <c r="G275" t="s">
-        <v>223</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8524,13 +7922,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>36</v>
-      </c>
-      <c r="G276" t="s">
-        <v>237</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8550,13 +7946,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>26</v>
-      </c>
-      <c r="G277" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8576,13 +7970,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>36</v>
-      </c>
-      <c r="G278" t="s">
-        <v>234</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8602,13 +7994,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>26</v>
-      </c>
-      <c r="G279" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8628,13 +8018,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>36</v>
-      </c>
-      <c r="G280" t="s">
-        <v>234</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8654,13 +8042,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>26</v>
-      </c>
-      <c r="G281" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8680,13 +8066,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>36</v>
-      </c>
-      <c r="G282" t="s">
-        <v>234</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8706,13 +8090,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>26</v>
-      </c>
-      <c r="G283" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8732,13 +8114,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>36</v>
-      </c>
-      <c r="G284" t="s">
-        <v>234</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8758,13 +8138,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>26</v>
-      </c>
-      <c r="G285" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8784,13 +8162,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>36</v>
-      </c>
-      <c r="G286" t="s">
-        <v>231</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8810,13 +8186,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>26</v>
-      </c>
-      <c r="G287" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8836,13 +8210,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>36</v>
-      </c>
-      <c r="G288" t="s">
-        <v>237</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8862,13 +8234,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>26</v>
-      </c>
-      <c r="G289" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8890,11 +8260,9 @@
       <c r="F290" t="s">
         <v>11</v>
       </c>
-      <c r="G290" t="s">
-        <v>12</v>
-      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8914,13 +8282,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>26</v>
-      </c>
-      <c r="G291" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8942,11 +8308,9 @@
       <c r="F292" t="s">
         <v>11</v>
       </c>
-      <c r="G292" t="s">
-        <v>12</v>
-      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8968,11 +8332,9 @@
       <c r="F293" t="s">
         <v>11</v>
       </c>
-      <c r="G293" t="s">
-        <v>12</v>
-      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
